--- a/biology/Zoologie/Derbidae/Derbidae.xlsx
+++ b/biology/Zoologie/Derbidae/Derbidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Derbidae sont une famille d'insectes de l'ordre des hémiptères et de la super-famille des Fulgoroidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille regroupe des espèces de Fulgoroidea dont les angles postérieurs du prothorax sont plus élevés que les écailles humérales et dont les tibias postérieurs sont mutiques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille regroupe des espèces de Fulgoroidea dont les angles postérieurs du prothorax sont plus élevés que les écailles humérales et dont les tibias postérieurs sont mutiques.
 </t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Derbidae contient plus de 1700 espèces appartenant à plus de 160 genres[2]. Cette famille fait l'objet de révisions et d'ajouts 
-réguliers[3].
-Liste (incomplète) des genres[4]:
-Sous-famille Cedusinae Emeljanov, 1992[5],[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Derbidae contient plus de 1700 espèces appartenant à plus de 160 genres. Cette famille fait l'objet de révisions et d'ajouts 
+réguliers.
+Liste (incomplète) des genres:
+Sous-famille Cedusinae Emeljanov, 1992,
 Tribu Breddiniolini Fennah, 1950
 Genre Breddiniola Muir, 1934
 Genre Breddiniolella Fennah, 1950
 Genre Hemielissum Emeljanov &amp; Fletcher, 2004
-Tribu Cedusini Emeljanov, 1992[6]
+Tribu Cedusini Emeljanov, 1992
 Genre Cedusina Emeljanov, 1992
 Genre Eocenchreina Emeljanov, 1992
 Genre Neocenchreina Emeljanov, 2008
@@ -564,11 +580,11 @@
 Genre Phrygia Stål, 1856
 Tribu Vinatini Emeljanov, 1992
 Genre Vinata Distant, 1906
-sous-famille Derbinae Spinola, 1839[5],[6]
+sous-famille Derbinae Spinola, 1839,
 Tribu Cedochreini Emeljanov, 1995
 Genre Cedochrea Emeljanov, 1995
 Genre Cedochrusa Emeljanov, 2008
-Tribu Cenchreini Muir, 1917[6]
+Tribu Cenchreini Muir, 1917
 Genre Anchimothon Fennah, 1952
 Genre Cenchrea Westwood, 1840
 Genre Cyclometopum Muir, 1913
@@ -578,15 +594,15 @@
 Genre Fescennia Stål, 1866
 Genre Fordicidia Distant, 1917
 Genre Goneokara Muir, 1913
-Genre Herpis Stål, 1862[6]
+Genre Herpis Stål, 1862
 Genre Lamenia Stål, 1859
 Genre Malenia Haupt, 1924
 Genre Muirileguatia Metcalf, 1945
 Genre Neolamenia Muir, 1917
-Genre Omolicna Fennah, 1945[6]
+Genre Omolicna Fennah, 1945
 Genre Oropuna Fennah, 1952
 Genre Peradenina Distant, 1911
-Genre Persis Stål, 1862[6]
+Genre Persis Stål, 1862
 Genre Phaciocephalus Kirkaldy, 1906
 Genre Symidia Muir, 1918
 Genre Vekunta Distant, 1906
@@ -605,7 +621,7 @@
 Genre Pseudomysidia Metcalf, 1938
 Tribu Nicertini Emeljanov, 1992
 Genre Nicerta Walker, F., 1857
-sous-famille Otiocerinae Muir, 1917[5]
+sous-famille Otiocerinae Muir, 1917
 Tribu Aquaeliciini Banaszkiewicz &amp; Szwedo, 2005
 Genre Aquaelicium Distant, 1917
 Genre Ileifea Banaszkiewicz &amp; Szwedo, 2005
@@ -730,9 +746,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(fr) M. Spinola, 1839, « Essai sur les Fulgorelles, sous-tribu de la tribu des Cicadaires, ordre des Rhyngotes ». Annales de la Société Entomologique de France, Paris, vol. 8, p. 133-337 [204] (lire en ligne).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(fr) M. Spinola, 1839, « Essai sur les Fulgorelles, sous-tribu de la tribu des Cicadaires, ordre des Rhyngotes ». Annales de la Société Entomologique de France, Paris, vol. 8, p. 133-337  (lire en ligne).</t>
         </is>
       </c>
     </row>
